--- a/Rapport/Repartition bruit gaussien.xlsx
+++ b/Rapport/Repartition bruit gaussien.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3368820909fd00f6/MEM_One_Drive/2_Ecole - IMT Atlantique/SIT 213 - Atelier logiciel simulation d'un système de transmission/Simulator_2000/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\Documents\OneDrive\MEM_One_Drive\2_Ecole - IMT Atlantique\SIT 213 - Atelier logiciel simulation d'un système de transmission\Simulator_2000\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{FAACA219-0A85-4E04-B339-A27D05B5C182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{6FA85F7A-E623-4FD0-9397-649496A7EA7E}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{FAACA219-0A85-4E04-B339-A27D05B5C182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7A354E3B-9031-46A0-B93F-49FB959BA1D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B016E7EE-1FF0-45F6-8B79-A167A9F58B66}"/>
   </bookViews>
@@ -18,8 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil5!$A$1:$A$300</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil5!$A$1:$A$300</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil5!$A$1:$A$300</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +187,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -197,7 +195,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Répartition de 300 valeurs du bruit gaussien ajouté au signal :</cx:v>
+          <cx:v>Répartition de 300 valeurs du bruit blanc gaussien ajouté au signal :</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -217,7 +215,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
-            <a:t>Répartition de 300 valeurs du bruit gaussien ajouté au signal :</a:t>
+            <a:t>Répartition de 300 valeurs du bruit blanc gaussien ajouté au signal :</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -820,7 +818,8 @@
     <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -894,7 +893,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0528AC60-8E41-472B-ABC7-94649E3410A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466C8436-BE9A-498B-918A-A8A5F0E39479}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>

--- a/Rapport/Repartition bruit gaussien.xlsx
+++ b/Rapport/Repartition bruit gaussien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnau\Documents\OneDrive\MEM_One_Drive\2_Ecole - IMT Atlantique\SIT 213 - Atelier logiciel simulation d'un système de transmission\Simulator_2000\Rapport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{FAACA219-0A85-4E04-B339-A27D05B5C182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7A354E3B-9031-46A0-B93F-49FB959BA1D8}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{FAACA219-0A85-4E04-B339-A27D05B5C182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{DF611631-1DDF-4A09-9870-EF94CCFBFDC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B016E7EE-1FF0-45F6-8B79-A167A9F58B66}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil5!$A$1:$A$300</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil5!$A$1:$A$300</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -226,7 +227,7 @@
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
-              <cx:binCount val="15"/>
+              <cx:binCount val="10"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -893,7 +894,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466C8436-BE9A-498B-918A-A8A5F0E39479}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E79902-712C-41FD-966D-0DD65A74D3B8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
